--- a/tasks4.1_24012017.xlsx
+++ b/tasks4.1_24012017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -95,10 +95,6 @@
     <t>Game Judgement</t>
   </si>
   <si>
-    <t>Vuforia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,9 +139,6 @@
   </si>
   <si>
     <t>Ongoing</t>
-  </si>
-  <si>
-    <t>Delayed</t>
   </si>
   <si>
     <t>Delayed</t>
@@ -969,11 +962,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="95186432"/>
-        <c:axId val="72860224"/>
+        <c:axId val="115710976"/>
+        <c:axId val="83936384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95186432"/>
+        <c:axId val="115710976"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1016,7 +1009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72860224"/>
+        <c:crossAx val="83936384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1024,7 +1017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72860224"/>
+        <c:axId val="83936384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1122,7 +1115,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95186432"/>
+        <c:crossAx val="115710976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="3"/>
@@ -1506,7 +1499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1514,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J986"/>
+  <dimension ref="A1:J985"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:J38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="18.75" outlineLevelRow="1"/>
@@ -1525,10 +1518,10 @@
     <col min="1" max="1" width="6.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" style="17" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="22" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="23" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" style="24" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" style="30" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" style="21" customWidth="1"/>
@@ -1542,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
@@ -1566,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1577,7 +1570,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="17" t="str">
         <f>$A2&amp;". "&amp;$B2&amp;": "&amp;$C2</f>
@@ -1601,7 +1594,7 @@
         <v>42644</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="37.5">
@@ -1609,10 +1602,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="17" t="str">
         <f>$A3&amp;". "&amp;$B3&amp;": "&amp;$C3</f>
@@ -1636,7 +1629,7 @@
         <v>42705</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1654,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -1681,7 +1674,7 @@
         <v>42736</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1692,7 +1685,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="17" t="str">
         <f>$A6&amp;". "&amp;$B6&amp;": "&amp;$C6</f>
@@ -1716,7 +1709,7 @@
         <v>42705</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1724,10 +1717,10 @@
         <v>3.2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="17" t="str">
         <f>$A7&amp;". "&amp;$B7&amp;": "&amp;$C7</f>
@@ -1751,7 +1744,7 @@
         <v>42705</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10" outlineLevel="1">
@@ -1762,7 +1755,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="17" t="str">
         <f>$A8&amp;". "&amp;$B8&amp;": "&amp;$C8</f>
@@ -1786,7 +1779,7 @@
         <v>42705</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" outlineLevel="1">
@@ -1794,10 +1787,10 @@
         <v>3.4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="17" t="str">
         <f>$A9&amp;". "&amp;$B9&amp;": "&amp;$C9</f>
@@ -1821,7 +1814,7 @@
         <v>42705</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" outlineLevel="1">
@@ -1856,7 +1849,7 @@
         <v>42705</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10" outlineLevel="1">
@@ -1864,7 +1857,7 @@
         <v>3.6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
@@ -1891,7 +1884,7 @@
         <v>42705</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" outlineLevel="1">
@@ -1926,7 +1919,7 @@
         <v>42736</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" outlineLevel="1">
@@ -1934,7 +1927,7 @@
         <v>3.8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -1961,7 +1954,7 @@
         <v>42736</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10" outlineLevel="1">
@@ -1978,10 +1971,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="17" t="str">
         <f>$A15&amp;". "&amp;$B15&amp;": "&amp;$C15</f>
@@ -2005,7 +1998,7 @@
         <v>42767</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="37.5">
@@ -2016,7 +2009,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="17" t="str">
         <f>$A16&amp;". "&amp;$B16&amp;": "&amp;$C16</f>
@@ -2040,7 +2033,7 @@
         <v>42736</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2051,7 +2044,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="17" t="str">
         <f>$A17&amp;". "&amp;$B17&amp;": "&amp;$C17</f>
@@ -2075,7 +2068,7 @@
         <v>42767</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:10" outlineLevel="1">
@@ -2083,10 +2076,10 @@
         <v>4.3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="17" t="str">
         <f>$A18&amp;". "&amp;$B18&amp;": "&amp;$C18</f>
@@ -2110,7 +2103,7 @@
         <v>42705</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:10" outlineLevel="1">
@@ -2127,10 +2120,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="17" t="str">
         <f>$A20&amp;". "&amp;$B20&amp;": "&amp;$C20</f>
@@ -2153,13 +2146,16 @@
       <c r="I20" s="29">
         <v>42675</v>
       </c>
+      <c r="J20" s="21" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4">
         <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>23</v>
@@ -2185,13 +2181,16 @@
       <c r="I21" s="29">
         <v>42705</v>
       </c>
+      <c r="J21" s="21" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4">
         <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
@@ -2217,6 +2216,9 @@
       <c r="I22" s="29">
         <v>42736</v>
       </c>
+      <c r="J22" s="21" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4">
@@ -2226,7 +2228,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="17" t="str">
         <f>$A23&amp;". "&amp;$B23&amp;": "&amp;$C23</f>
@@ -2249,6 +2251,9 @@
       <c r="I23" s="29">
         <v>42795</v>
       </c>
+      <c r="J23" s="21" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4"/>
@@ -2264,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
@@ -2322,16 +2327,13 @@
       <c r="I26" s="29">
         <v>42795</v>
       </c>
-      <c r="J26" s="21" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4">
         <v>9.1999999999999993</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
@@ -2356,9 +2358,6 @@
       </c>
       <c r="I27" s="29">
         <v>42795</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:10" outlineLevel="1">
@@ -2392,16 +2391,13 @@
       <c r="I28" s="29">
         <v>42795</v>
       </c>
-      <c r="J28" s="21" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="29" spans="1:10" outlineLevel="1">
       <c r="A29" s="4">
         <v>9.4</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>16</v>
@@ -2427,9 +2423,6 @@
       <c r="I29" s="29">
         <v>42795</v>
       </c>
-      <c r="J29" s="21" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="30" spans="1:10" outlineLevel="1">
       <c r="A30" s="4"/>
@@ -2445,7 +2438,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
@@ -2541,7 +2534,7 @@
         <v>10.3</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>22</v>
@@ -2585,7 +2578,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D36" s="17" t="str">
         <f>$A36&amp;". "&amp;$B36&amp;": "&amp;$C36</f>
@@ -2650,18 +2643,18 @@
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="3"/>
       <c r="H39" s="9"/>
       <c r="I39" s="29"/>
       <c r="J39" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="19.5" thickBot="1">
@@ -2675,7 +2668,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="29"/>
       <c r="J40" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2687,7 +2680,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="29"/>
       <c r="J41" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2699,7 +2692,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="29"/>
       <c r="J42" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2713,39 +2706,14 @@
       <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="4">
-        <v>0</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="17" t="str">
-        <f>$A44&amp;". "&amp;$B44&amp;": "&amp;$C44</f>
-        <v>0. Technology Test: Vuforia</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="29">
-        <v>42614</v>
-      </c>
-      <c r="G44" s="6">
-        <f>ROUND(($F44-$G$1)/7, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="6">
-        <f>ROUND(($I44-$F44+15)/7, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="I44" s="29">
-        <v>42644</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>35</v>
-      </c>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="4"/>
@@ -2755,7 +2723,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="9"/>
       <c r="I45" s="29"/>
-      <c r="J45" s="26"/>
+      <c r="J45" s="27"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="4"/>
@@ -2765,7 +2733,6 @@
       <c r="G46" s="3"/>
       <c r="H46" s="9"/>
       <c r="I46" s="29"/>
-      <c r="J46" s="27"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="4"/>
@@ -11218,15 +11185,6 @@
       <c r="H985" s="9"/>
       <c r="I985" s="29"/>
     </row>
-    <row r="986" spans="1:9">
-      <c r="A986" s="4"/>
-      <c r="B986" s="4"/>
-      <c r="E986" s="5"/>
-      <c r="F986" s="29"/>
-      <c r="G986" s="3"/>
-      <c r="H986" s="9"/>
-      <c r="I986" s="29"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:J38">
     <sortState ref="A2:J38">
@@ -11234,14 +11192,14 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J44 J2:J38">
+  <conditionalFormatting sqref="J2:J38">
     <cfRule type="expression" dxfId="2" priority="14">
       <formula>$J$42</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J44 J2:J38">
-      <formula1>$J$39:$J$46</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J38">
+      <formula1>$J$39:$J$45</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -11264,7 +11222,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C44 C2:C16 E2:E16 E44 C18:C38 E18:E38</xm:sqref>
+          <xm:sqref>C2:C16 E2:E16 C18:C38 E18:E38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="3" operator="containsText" id="{598E3976-C5D9-48EA-A897-FD633CD2D733}">

--- a/tasks4.1_24012017.xlsx
+++ b/tasks4.1_24012017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3030" windowHeight="4350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3030" windowHeight="4350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Task Schedule" sheetId="1" r:id="rId1"/>
@@ -1509,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -11251,7 +11251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
